--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>建信中证1000指数增强C</t>
   </si>
   <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
     <t>93.08</t>
   </si>
   <si>
     <t>1.57</t>
+  </si>
+  <si>
+    <t>0.0113</t>
+  </si>
+  <si>
+    <t>0.0042</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006165</t>
-  </si>
-  <si>
-    <t>006166</t>
-  </si>
-  <si>
-    <t>建信中证1000指数增强A</t>
-  </si>
-  <si>
-    <t>建信中证1000指数增强C</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>93.08</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>0.0113</t>
-  </si>
-  <si>
-    <t>0.0042</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9487</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.75</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4135</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.98</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.75</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.69</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.98</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.75</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,697 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新财富灵活配置混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>38.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.43</t>
+          <t>82.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.9170</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,680 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.8394</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +1415,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>26.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.1218</t>
+          <t>0.6551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +1453,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.22</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.8364</t>
+          <t>0.6469</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +1491,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.21</t>
+          <t>19.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0393</t>
+          <t>0.5765</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1529,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.9375</t>
+          <t>0.2066</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +1567,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011251</t>
+          <t>014277</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安聚嘉精选混合A</t>
+          <t>万家北交所慧选两年定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.25</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>97.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0310</t>
+          <t>0.1699</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -961,36 +1605,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.16</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9546</t>
+          <t>0.1000</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -999,36 +1643,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9487</t>
+          <t>0.0986</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1037,36 +1681,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.31</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7309</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1075,32 +1719,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011252</t>
+          <t>400007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安聚嘉精选混合C</t>
+          <t>东方策略成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31.90</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>82.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5551</t>
+          <t>0.0531</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1113,36 +1757,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1528</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1151,36 +1795,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1107</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1189,36 +1833,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0670</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1227,32 +1871,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>014278</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>万家北交所慧选两年定期开放混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>97.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0613</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1265,36 +1909,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1303,36 +1947,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1341,36 +1985,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1379,36 +2023,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>006857</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>蜂巢卓睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>78.16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1417,111 +2061,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>006858</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>蜂巢卓睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>78.16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1820,7 +2388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,7 +2409,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1871,36 +2439,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>59.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6551</t>
+          <t>6.1218</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1909,36 +2477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.62</t>
+          <t>51.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6469</t>
+          <t>3.8364</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1947,36 +2515,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.61</t>
+          <t>66.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5765</t>
+          <t>2.0393</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1985,36 +2553,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2066</t>
+          <t>1.9375</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2023,36 +2591,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014277</t>
+          <t>011251</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合A</t>
+          <t>华安聚嘉精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>59.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.90</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1699</t>
+          <t>1.0310</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2061,36 +2629,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1000</t>
+          <t>0.9546</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2099,36 +2667,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.9487</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2137,36 +2705,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>21.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.7309</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2175,32 +2743,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400007</t>
+          <t>011252</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方策略成长混合</t>
+          <t>华安聚嘉精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>31.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.01</t>
+          <t>78.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0531</t>
+          <t>0.5551</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2213,36 +2781,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.1528</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2251,36 +2819,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.1107</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2289,36 +2857,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0670</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2327,32 +2895,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014278</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家北交所慧选两年定期开放混合C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>97.90</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0613</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2365,36 +2933,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0453</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2403,36 +2971,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2441,36 +3009,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2479,36 +3047,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006857</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>78.16</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2517,35 +3085,111 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006858</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.16</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2560,7 +3204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,7 +3225,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2611,36 +3255,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>003655</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>信达澳银新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>25.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9170</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2649,680 +3293,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8394</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6460</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1716</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>40.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003125</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009747</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>65.11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519099</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新华灵活主题混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.43</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>40.63</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3336,128 +3336,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.85</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.98</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02</v>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.85</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>11.98</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>18.75</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1358,7 +2115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2098,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3198,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3330,7 +4087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
+++ b/数据整理/stocks/A股/上证主板/600123-兰花科创.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.85</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>11.98</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>18.75</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6836</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银聚福混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银聚福混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2855,7 +3458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3139,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3955,7 +4558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4087,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
